--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>人员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +53,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:staffs.get(int).time.YMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:staffs.get(int).staffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:staffs.get(int).staffNo</t>
+    <t>:For:staffs.$size:staffs.$get(index).staffNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:For:staffs.$size:staffs.$get(index).staffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:For:staffs.$size:staffs.$get(index).time.YMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffs.$size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,13 +93,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -158,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,13 +192,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,65 +538,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="26.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="46.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>人员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,27 +45,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:For:staffs.$size:staffs.$get(index).staffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:For:staffs.$size:staffs.$get(index).time.YMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffs.$size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:For:staffs.$size:staffs.$get(index).staffNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>:orgName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入职时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:For:staffs.$size:staffs.$get(index).staffNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:For:staffs.$size:staffs.$get(index).staffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:For:staffs.$size:staffs.$get(index).time.YMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分总人数</t>
+    <t>小计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +110,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -177,11 +203,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -204,11 +323,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -554,33 +696,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -588,27 +730,50 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -49,14 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:For:staffs.$size:staffs.$get(index).staffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:For:staffs.$size:staffs.$get(index).time.YMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部分总人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:For:staffs.$size:staffs.$get(index).staffNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:orgName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +66,18 @@
   </si>
   <si>
     <t>:staffs.$size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffs[].staffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffs[].time.YMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffs[].staffNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,16 +323,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,7 +684,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -730,35 +730,35 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -323,28 +329,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -749,16 +755,16 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -18,6 +18,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author xml:space="preserve">  ZhengWei(HY)</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  ZhengWei(HY):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>staffs</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中的方括号表示staffs为集合对象，须对其循环遍历</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -85,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +192,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -332,25 +424,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -362,6 +454,79 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>795981</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="u=3898195537,322862068&amp;fm=23&amp;gp=0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13589000" y="609600"/>
+          <a:ext cx="326081" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,12 +850,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -755,31 +920,34 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -18,70 +18,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author xml:space="preserve">  ZhengWei(HY)</author>
-  </authors>
-  <commentList>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  ZhengWei(HY):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>staffs</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[]</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中的方括号表示staffs为集合对象，须对其循环遍历</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -149,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,34 +128,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -433,16 +341,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,79 +362,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>795981</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="u=3898195537,322862068&amp;fm=23&amp;gp=0.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13589000" y="609600"/>
-          <a:ext cx="326081" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,12 +685,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -926,28 +761,25 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -69,15 +69,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:staffs[].staffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:staffs[].time.YMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:staffs[].staffNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffSet[].staffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:staffMap[].time.YMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -739,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>人员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>:staffMap[].time.YMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:RowCount__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -303,7 +317,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +365,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:F5"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -771,11 +809,33 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>人员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,11 +81,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计：</t>
+    <t>部门合计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:RowSubtotalCount__</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>:RowCount__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员合计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +164,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -317,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,30 +367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +706,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,32 +788,38 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="8085" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小计，分级数据演示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +91,24 @@
   </si>
   <si>
     <t>人员合计：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人员编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（测试合并）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +159,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -319,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,6 +360,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,16 +397,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -702,128 +746,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="46.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B4:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\total\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="8085" tabRatio="500"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -184,7 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,49 +364,49 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -763,15 +767,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -780,10 +784,10 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -801,10 +805,10 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
@@ -819,17 +823,17 @@
       <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -841,25 +845,25 @@
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>

--- a/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
+++ b/test/org/hy/common/report/junit/total/JU_Total_Subtotal.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小计，分级数据演示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:orgNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,12 +111,42 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>小计，分级数据演示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{:reportTime}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成的报表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +198,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -364,6 +408,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,40 +423,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:G5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -766,16 +810,16 @@
     <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -784,56 +828,56 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="10"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -843,27 +887,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="16"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="17"/>
       <c r="G7" s="18"/>
     </row>
